--- a/AAAGameData/Languages/ChineseTraditional.xlsx
+++ b/AAAGameData/Languages/ChineseTraditional.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UGF\AAAGameData\Languages\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" fullPrecision="1"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <d:author xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">Anonymous</d:author>
+    <author>Anonymous</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -55,12 +62,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>BRAKE</t>
   </si>
   <si>
-    <t>中止</t>
+    <t>刹車</t>
   </si>
   <si>
     <t>ENGINE</t>
@@ -75,18 +82,6 @@
     <t>獲取</t>
   </si>
   <si>
-    <t>HelloWorld!</t>
-  </si>
-  <si>
-    <t>你好世界！</t>
-  </si>
-  <si>
-    <t>HOME</t>
-  </si>
-  <si>
-    <t>主頁</t>
-  </si>
-  <si>
     <t>Level.DisplayName1</t>
   </si>
   <si>
@@ -123,18 +118,54 @@
     <t>點擊開始</t>
   </si>
   <si>
-    <t>RATE US</t>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>未實現</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>關</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>開</t>
+  </si>
+  <si>
+    <t>RatingDialog.CancelTxt</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>RatingDialog.Description</t>
+  </si>
+  <si>
+    <t>喜歡這款遊戲嗎？ \n請給個5星好評吧！</t>
+  </si>
+  <si>
+    <t>RatingDialog.HighRatingTips</t>
+  </si>
+  <si>
+    <t>感謝您的肯定！ 我們將再接再厲！</t>
+  </si>
+  <si>
+    <t>RatingDialog.LowRatingTips</t>
+  </si>
+  <si>
+    <t>感謝您的評估，我們盡力完善優化！</t>
+  </si>
+  <si>
+    <t>RatingDialog.RateTxt</t>
   </si>
   <si>
     <t>評星</t>
   </si>
   <si>
-    <t>RESTORE</t>
-  </si>
-  <si>
-    <t>恢復</t>
-  </si>
-  <si>
     <t>RETRY</t>
   </si>
   <si>
@@ -147,12 +178,54 @@
     <t>復活</t>
   </si>
   <si>
-    <t>SETTINGS</t>
+    <t>Settings.Help</t>
+  </si>
+  <si>
+    <t>幫助反饋</t>
+  </si>
+  <si>
+    <t>Settings.Language</t>
+  </si>
+  <si>
+    <t>語言</t>
+  </si>
+  <si>
+    <t>Settings.Music</t>
+  </si>
+  <si>
+    <t>背景音樂</t>
+  </si>
+  <si>
+    <t>Settings.Privacy</t>
+  </si>
+  <si>
+    <t>隱私協定</t>
+  </si>
+  <si>
+    <t>Settings.Rating</t>
+  </si>
+  <si>
+    <t>評分</t>
+  </si>
+  <si>
+    <t>Settings.SFX</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t>Settings.Title</t>
   </si>
   <si>
     <t>設定</t>
   </si>
   <si>
+    <t>Settings.Vibrate</t>
+  </si>
+  <si>
+    <t>震動</t>
+  </si>
+  <si>
     <t>SHOP</t>
   </si>
   <si>
@@ -160,6 +233,15 @@
   </si>
   <si>
     <t>STEERING</t>
+  </si>
+  <si>
+    <t>駕駛</t>
+  </si>
+  <si>
+    <t>TermsOfService</t>
+  </si>
+  <si>
+    <t>服務條款</t>
   </si>
   <si>
     <t>UNLOCK</t>
@@ -171,7 +253,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -197,18 +279,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -260,7 +351,55 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -1275,530 +1414,6 @@
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
@@ -1815,10 +1430,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A1" id="1044">
+            <xdr:cNvPr hidden="1" name="A1" id="1056">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1044"/>
+                  <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -1901,10 +1516,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A2" id="1045">
+            <xdr:cNvPr hidden="1" name="A2" id="1057">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1045"/>
+                  <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -1987,10 +1602,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A3" id="1046">
+            <xdr:cNvPr hidden="1" name="A3" id="1058">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1046"/>
+                  <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2073,10 +1688,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A4" id="1047">
+            <xdr:cNvPr hidden="1" name="A4" id="1059">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1047"/>
+                  <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2159,10 +1774,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A5" id="1048">
+            <xdr:cNvPr hidden="1" name="A5" id="1060">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1048"/>
+                  <a14:compatExt spid="_x0000_s1060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2245,10 +1860,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A6" id="1049">
+            <xdr:cNvPr hidden="1" name="A6" id="1061">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1049"/>
+                  <a14:compatExt spid="_x0000_s1061"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2331,10 +1946,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A7" id="1050">
+            <xdr:cNvPr hidden="1" name="A7" id="1062">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1050"/>
+                  <a14:compatExt spid="_x0000_s1062"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2417,10 +2032,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A8" id="1051">
+            <xdr:cNvPr hidden="1" name="A8" id="1063">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1051"/>
+                  <a14:compatExt spid="_x0000_s1063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2503,10 +2118,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A9" id="1052">
+            <xdr:cNvPr hidden="1" name="A9" id="1064">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1052"/>
+                  <a14:compatExt spid="_x0000_s1064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2589,10 +2204,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A10" id="1053">
+            <xdr:cNvPr hidden="1" name="A10" id="1065">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1053"/>
+                  <a14:compatExt spid="_x0000_s1065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2675,10 +2290,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A11" id="1054">
+            <xdr:cNvPr hidden="1" name="A11" id="1066">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1054"/>
+                  <a14:compatExt spid="_x0000_s1066"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2761,10 +2376,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A12" id="1055">
+            <xdr:cNvPr hidden="1" name="A12" id="1067">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1055"/>
+                  <a14:compatExt spid="_x0000_s1067"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2847,10 +2462,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A13" id="1056">
+            <xdr:cNvPr hidden="1" name="A13" id="1068">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1056"/>
+                  <a14:compatExt spid="_x0000_s1068"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2933,10 +2548,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A14" id="1057">
+            <xdr:cNvPr hidden="1" name="A14" id="1069">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1057"/>
+                  <a14:compatExt spid="_x0000_s1069"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3019,10 +2634,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A15" id="1058">
+            <xdr:cNvPr hidden="1" name="A15" id="1070">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1058"/>
+                  <a14:compatExt spid="_x0000_s1070"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3105,10 +2720,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A16" id="1059">
+            <xdr:cNvPr hidden="1" name="A16" id="1071">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1059"/>
+                  <a14:compatExt spid="_x0000_s1071"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3191,10 +2806,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A17" id="1060">
+            <xdr:cNvPr hidden="1" name="A17" id="1072">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1060"/>
+                  <a14:compatExt spid="_x0000_s1072"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3277,10 +2892,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A18" id="1061">
+            <xdr:cNvPr hidden="1" name="A18" id="1073">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1061"/>
+                  <a14:compatExt spid="_x0000_s1073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3363,10 +2978,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A19" id="1062">
+            <xdr:cNvPr hidden="1" name="A19" id="1074">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1062"/>
+                  <a14:compatExt spid="_x0000_s1074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3432,20 +3047,1315 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A20" id="1075">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1075"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A21" id="1076">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1076"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A22" id="1077">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1077"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A23" id="1078">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1078"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A24" id="1079">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1079"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A25" id="1080">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1080"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A26" id="1081">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1081"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A27" id="1082">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1082"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A28" id="1083">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1083"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A29" id="1084">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1084"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A30" id="1085">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1085"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A31" id="1086">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1086"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="2" max="2" width="25.4074859619141" customWidth="1"/>
+    <col min="3" max="3" width="42.2229309082031" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3607,28 +4517,139 @@
         <v>34</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1"/>
+      <c r="B20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1"/>
+      <c r="B21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1"/>
+      <c r="B22" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1"/>
+      <c r="B23" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1"/>
+      <c r="B24" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1"/>
+      <c r="B26" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1"/>
+      <c r="B27" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1"/>
+      <c r="B28" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1"/>
+      <c r="B29" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1"/>
+      <c r="B30" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1"/>
+      <c r="B31" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-  <AlternateContent xmlns="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <Choice Requires="x14">
-      <controls xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1044" r:id="rId362" name="A1">
+            <control shapeId="1056" r:id="rId243" name="A1">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3650,7 +4671,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1045" r:id="rId363" name="A2">
+            <control shapeId="1057" r:id="rId244" name="A2">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3672,7 +4693,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1046" r:id="rId364" name="A3">
+            <control shapeId="1058" r:id="rId245" name="A3">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3694,7 +4715,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1047" r:id="rId365" name="A4">
+            <control shapeId="1059" r:id="rId246" name="A4">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3716,7 +4737,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1048" r:id="rId366" name="A5">
+            <control shapeId="1060" r:id="rId247" name="A5">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3738,7 +4759,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1049" r:id="rId367" name="A6">
+            <control shapeId="1061" r:id="rId248" name="A6">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3760,7 +4781,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1050" r:id="rId368" name="A7">
+            <control shapeId="1062" r:id="rId249" name="A7">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3782,7 +4803,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1051" r:id="rId369" name="A8">
+            <control shapeId="1063" r:id="rId250" name="A8">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3804,7 +4825,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1052" r:id="rId370" name="A9">
+            <control shapeId="1064" r:id="rId251" name="A9">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3826,7 +4847,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1053" r:id="rId371" name="A10">
+            <control shapeId="1065" r:id="rId252" name="A10">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3848,7 +4869,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1054" r:id="rId372" name="A11">
+            <control shapeId="1066" r:id="rId253" name="A11">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3870,7 +4891,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1055" r:id="rId373" name="A12">
+            <control shapeId="1067" r:id="rId254" name="A12">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3892,7 +4913,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId374" name="A13">
+            <control shapeId="1068" r:id="rId255" name="A13">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3914,7 +4935,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId375" name="A14">
+            <control shapeId="1069" r:id="rId256" name="A14">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3936,7 +4957,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1058" r:id="rId376" name="A15">
+            <control shapeId="1070" r:id="rId257" name="A15">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3958,7 +4979,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId377" name="A16">
+            <control shapeId="1071" r:id="rId258" name="A16">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3980,7 +5001,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId378" name="A17">
+            <control shapeId="1072" r:id="rId259" name="A17">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4002,7 +5023,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1061" r:id="rId379" name="A18">
+            <control shapeId="1073" r:id="rId260" name="A18">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4024,7 +5045,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId380" name="A19">
+            <control shapeId="1074" r:id="rId261" name="A19">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4037,6 +5058,270 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>19</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1075" r:id="rId262" name="A20">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1076" r:id="rId263" name="A21">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1077" r:id="rId264" name="A22">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1078" r:id="rId265" name="A23">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1079" r:id="rId266" name="A24">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1080" r:id="rId267" name="A25">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1081" r:id="rId268" name="A26">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1082" r:id="rId269" name="A27">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1083" r:id="rId270" name="A28">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1084" r:id="rId271" name="A29">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1085" r:id="rId272" name="A30">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1086" r:id="rId273" name="A31">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>31</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -4045,7 +5330,7 @@
           </mc:Choice>
         </mc:AlternateContent>
       </controls>
-    </Choice>
-  </AlternateContent>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
--- a/AAAGameData/Languages/ChineseTraditional.xlsx
+++ b/AAAGameData/Languages/ChineseTraditional.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>BRAKE</t>
   </si>
@@ -76,10 +76,13 @@
     <t>引擎</t>
   </si>
   <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>獲取</t>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>GameOverUIForm.Back</t>
   </si>
   <si>
     <t>Level.DisplayName1</t>
@@ -166,18 +169,6 @@
     <t>評星</t>
   </si>
   <si>
-    <t>RETRY</t>
-  </si>
-  <si>
-    <t>重試</t>
-  </si>
-  <si>
-    <t>REVIVE</t>
-  </si>
-  <si>
-    <t>復活</t>
-  </si>
-  <si>
     <t>Settings.Help</t>
   </si>
   <si>
@@ -248,6 +239,9 @@
   </si>
   <si>
     <t>解鎖</t>
+  </si>
+  <si>
+    <t>Victory</t>
   </si>
 </sst>
 </file>
@@ -429,6 +423,130 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
     <mc:Fallback/>
@@ -4391,250 +4509,250 @@
         <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1"/>
       <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1"/>
       <c r="B28" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1"/>
       <c r="B29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
       <c r="B30" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1"/>
       <c r="B31" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4649,7 +4767,7 @@
       <controls>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId243" name="A1">
+            <control shapeId="1056" r:id="rId273" name="A1">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4671,7 +4789,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId244" name="A2">
+            <control shapeId="1057" r:id="rId274" name="A2">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4693,7 +4811,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1058" r:id="rId245" name="A3">
+            <control shapeId="1058" r:id="rId275" name="A3">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4715,7 +4833,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId246" name="A4">
+            <control shapeId="1059" r:id="rId276" name="A4">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4737,7 +4855,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId247" name="A5">
+            <control shapeId="1060" r:id="rId277" name="A5">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4759,7 +4877,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1061" r:id="rId248" name="A6">
+            <control shapeId="1061" r:id="rId278" name="A6">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4781,7 +4899,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId249" name="A7">
+            <control shapeId="1062" r:id="rId279" name="A7">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4803,7 +4921,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1063" r:id="rId250" name="A8">
+            <control shapeId="1063" r:id="rId280" name="A8">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4825,7 +4943,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1064" r:id="rId251" name="A9">
+            <control shapeId="1064" r:id="rId281" name="A9">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4847,7 +4965,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId252" name="A10">
+            <control shapeId="1065" r:id="rId282" name="A10">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4869,7 +4987,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1066" r:id="rId253" name="A11">
+            <control shapeId="1066" r:id="rId283" name="A11">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4891,7 +5009,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1067" r:id="rId254" name="A12">
+            <control shapeId="1067" r:id="rId284" name="A12">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4913,7 +5031,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId255" name="A13">
+            <control shapeId="1068" r:id="rId285" name="A13">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4935,7 +5053,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1069" r:id="rId256" name="A14">
+            <control shapeId="1069" r:id="rId286" name="A14">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4957,7 +5075,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1070" r:id="rId257" name="A15">
+            <control shapeId="1070" r:id="rId287" name="A15">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4979,7 +5097,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1071" r:id="rId258" name="A16">
+            <control shapeId="1071" r:id="rId288" name="A16">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5001,7 +5119,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1072" r:id="rId259" name="A17">
+            <control shapeId="1072" r:id="rId289" name="A17">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5023,7 +5141,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1073" r:id="rId260" name="A18">
+            <control shapeId="1073" r:id="rId290" name="A18">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5045,7 +5163,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1074" r:id="rId261" name="A19">
+            <control shapeId="1074" r:id="rId291" name="A19">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5067,7 +5185,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1075" r:id="rId262" name="A20">
+            <control shapeId="1075" r:id="rId292" name="A20">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5089,7 +5207,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1076" r:id="rId263" name="A21">
+            <control shapeId="1076" r:id="rId293" name="A21">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5111,7 +5229,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1077" r:id="rId264" name="A22">
+            <control shapeId="1077" r:id="rId294" name="A22">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5133,7 +5251,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1078" r:id="rId265" name="A23">
+            <control shapeId="1078" r:id="rId295" name="A23">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5155,7 +5273,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1079" r:id="rId266" name="A24">
+            <control shapeId="1079" r:id="rId296" name="A24">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5177,7 +5295,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1080" r:id="rId267" name="A25">
+            <control shapeId="1080" r:id="rId297" name="A25">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5199,7 +5317,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1081" r:id="rId268" name="A26">
+            <control shapeId="1081" r:id="rId298" name="A26">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5221,7 +5339,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1082" r:id="rId269" name="A27">
+            <control shapeId="1082" r:id="rId299" name="A27">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5243,7 +5361,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1083" r:id="rId270" name="A28">
+            <control shapeId="1083" r:id="rId300" name="A28">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5265,7 +5383,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1084" r:id="rId271" name="A29">
+            <control shapeId="1084" r:id="rId301" name="A29">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5287,7 +5405,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1085" r:id="rId272" name="A30">
+            <control shapeId="1085" r:id="rId302" name="A30">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5309,7 +5427,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1086" r:id="rId273" name="A31">
+            <control shapeId="1086" r:id="rId303" name="A31">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
